--- a/App_data/20181207Products.xlsx
+++ b/App_data/20181207Products.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>条码号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>0371-79180301010501-0393</t>
+  </si>
+  <si>
+    <t>0371-79180301010501-0394</t>
+  </si>
+  <si>
+    <t>0371-79180301010501-0395</t>
+  </si>
+  <si>
+    <t>0371-79180301010501-0396</t>
+  </si>
+  <si>
+    <t>0371-79180301010501-0397</t>
+  </si>
+  <si>
+    <t>0371-79180301010501-0398</t>
   </si>
 </sst>
 </file>
@@ -388,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -432,6 +447,91 @@
       </c>
       <c r="E2">
         <v>30689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>19080110414</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>101.33</v>
+      </c>
+      <c r="E3">
+        <v>30690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>19080110415</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>102.33</v>
+      </c>
+      <c r="E4">
+        <v>30691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>19080110416</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>103.33</v>
+      </c>
+      <c r="E5">
+        <v>30692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>19080110417</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>104.33</v>
+      </c>
+      <c r="E6">
+        <v>30693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>19080110418</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>105.33</v>
+      </c>
+      <c r="E7">
+        <v>30694</v>
       </c>
     </row>
   </sheetData>
